--- a/results/mp/tinybert/corona/confidence/84/stop-words-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,10 +49,13 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>shit</t>
+    <t>low</t>
   </si>
   <si>
     <t>panic</t>
@@ -61,13 +64,13 @@
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
+    <t>risk</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>empty</t>
+    <t>fight</t>
   </si>
   <si>
     <t>stop</t>
@@ -82,15 +85,15 @@
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -103,64 +106,64 @@
     <t>thanks</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
@@ -169,61 +172,67 @@
     <t>sure</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increased</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>online</t>
   </si>
   <si>
     <t>health</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>shopping</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
     <t>local</t>
   </si>
   <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>home</t>
   </si>
   <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
     <t>stock</t>
   </si>
   <si>
-    <t>store</t>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>san</t>
+    <t>food</t>
   </si>
   <si>
     <t>co</t>
   </si>
   <si>
-    <t>food</t>
+    <t>prices</t>
   </si>
 </sst>
 </file>
@@ -581,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,7 +598,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
         <v>31</v>
@@ -650,13 +659,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9117647058823529</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -668,19 +677,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -700,13 +709,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7777777777777778</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -718,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -742,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -750,13 +759,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.726027397260274</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="C5">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D5">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -768,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -792,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -800,13 +809,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6578947368421053</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -821,25 +830,25 @@
         <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8738738738738738</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M6">
         <v>98</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
         <v>14</v>
@@ -850,7 +859,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6410256410256411</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C7">
         <v>25</v>
@@ -868,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K7">
         <v>0.8611111111111112</v>
@@ -900,13 +909,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4341085271317829</v>
+        <v>0.4697986577181208</v>
       </c>
       <c r="C8">
-        <v>224</v>
+        <v>70</v>
       </c>
       <c r="D8">
-        <v>224</v>
+        <v>70</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -918,19 +927,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K8">
-        <v>0.8359375</v>
+        <v>0.8515625</v>
       </c>
       <c r="L8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -942,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -950,13 +959,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4266666666666667</v>
+        <v>0.4631782945736434</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>239</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>239</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -968,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>43</v>
+        <v>277</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>0.8292682926829268</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L9">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M9">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -992,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1000,13 +1009,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4093959731543624</v>
+        <v>0.4</v>
       </c>
       <c r="C10">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1018,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>0.8169014084507042</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L10">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="M10">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1042,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1050,37 +1059,37 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3882978723404255</v>
+        <v>0.3896103896103896</v>
       </c>
       <c r="C11">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="E11">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>0.8085106382978723</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L11">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M11">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1092,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1100,13 +1109,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3333333333333333</v>
+        <v>0.3756613756613756</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1118,19 +1127,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K12">
-        <v>0.7931034482758621</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1142,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1150,13 +1159,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2420634920634921</v>
+        <v>0.3375</v>
       </c>
       <c r="C13">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1168,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>191</v>
+        <v>53</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K13">
-        <v>0.7916666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="L13">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M13">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1192,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1200,37 +1209,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1559139784946237</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="C14">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D14">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E14">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>314</v>
+        <v>188</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K14">
-        <v>0.7843137254901961</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L14">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="M14">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1242,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1250,54 +1259,78 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.01123234916559692</v>
+        <v>0.1447721179624665</v>
       </c>
       <c r="C15">
+        <v>54</v>
+      </c>
+      <c r="D15">
+        <v>54</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>319</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D15">
+      <c r="K15">
+        <v>0.7735849056603774</v>
+      </c>
+      <c r="L15">
+        <v>82</v>
+      </c>
+      <c r="M15">
+        <v>82</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0.00932475884244373</v>
+      </c>
+      <c r="C16">
+        <v>29</v>
+      </c>
+      <c r="D16">
         <v>120</v>
       </c>
-      <c r="E15">
-        <v>0.71</v>
-      </c>
-      <c r="F15">
-        <v>0.29</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15">
+      <c r="E16">
+        <v>0.76</v>
+      </c>
+      <c r="F16">
+        <v>0.24</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16">
         <v>3081</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15">
-        <v>0.7358490566037735</v>
-      </c>
-      <c r="L15">
-        <v>78</v>
-      </c>
-      <c r="M15">
-        <v>78</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K16">
         <v>0.7301587301587301</v>
@@ -1323,16 +1356,16 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K17">
-        <v>0.7222222222222222</v>
+        <v>0.7125</v>
       </c>
       <c r="L17">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="M17">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1344,21 +1377,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K18">
-        <v>0.71875</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="L18">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="M18">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1370,21 +1403,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K19">
-        <v>0.6919060052219321</v>
+        <v>0.6553524804177546</v>
       </c>
       <c r="L19">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="M19">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1396,21 +1429,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K20">
-        <v>0.6744186046511628</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1422,21 +1455,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.62</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1448,21 +1481,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K22">
-        <v>0.6595744680851063</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="L22">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="M22">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1474,21 +1507,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>32</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K23">
-        <v>0.625</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1500,21 +1533,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L24">
-        <v>204</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>204</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1526,21 +1559,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>136</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K25">
-        <v>0.5842696629213483</v>
+        <v>0.5764705882352941</v>
       </c>
       <c r="L25">
-        <v>52</v>
+        <v>196</v>
       </c>
       <c r="M25">
-        <v>52</v>
+        <v>196</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1552,21 +1585,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>37</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K26">
-        <v>0.5600000000000001</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L26">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M26">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1578,21 +1611,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>0.5523012552301255</v>
+        <v>0.5313807531380753</v>
       </c>
       <c r="L27">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M27">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1604,21 +1637,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28">
-        <v>0.5491525423728814</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L28">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="M28">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1630,21 +1663,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>133</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K29">
-        <v>0.4923076923076923</v>
+        <v>0.4794520547945205</v>
       </c>
       <c r="L29">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M29">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1656,21 +1689,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K30">
-        <v>0.4871794871794872</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="L30">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M30">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1682,21 +1715,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K31">
-        <v>0.453125</v>
+        <v>0.4375</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1708,21 +1741,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K32">
-        <v>0.4383561643835616</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1734,15 +1767,15 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K33">
-        <v>0.3472222222222222</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="L33">
         <v>25</v>
@@ -1760,64 +1793,64 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>0.2061068702290076</v>
+        <v>0.2086330935251799</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="M34">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>104</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K35">
-        <v>0.184652278177458</v>
+        <v>0.2</v>
       </c>
       <c r="L35">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="N35">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O35">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>340</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K36">
         <v>0.1826923076923077</v>
@@ -1843,33 +1876,33 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K37">
-        <v>0.1717791411042945</v>
+        <v>0.1643192488262911</v>
       </c>
       <c r="L37">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M37">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>135</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K38">
         <v>0.1635220125786163</v>
@@ -1895,68 +1928,68 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K39">
-        <v>0.1549295774647887</v>
+        <v>0.1604938271604938</v>
       </c>
       <c r="L39">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M39">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N39">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O39">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>180</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K40">
-        <v>0.1453488372093023</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="L40">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M40">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>147</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K41">
-        <v>0.1348837209302326</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="L41">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M41">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1968,47 +2001,47 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>186</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K42">
-        <v>0.12</v>
+        <v>0.1210762331838565</v>
       </c>
       <c r="L42">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="M42">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="N42">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="O42">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>286</v>
+        <v>784</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K43">
-        <v>0.1129753914988814</v>
+        <v>0.1039755351681957</v>
       </c>
       <c r="L43">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="M43">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2020,215 +2053,267 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>793</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K44">
-        <v>0.0941358024691358</v>
+        <v>0.09555555555555556</v>
       </c>
       <c r="L44">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="M44">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="N44">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O44">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>587</v>
+        <v>814</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K45">
-        <v>0.08879023307436182</v>
+        <v>0.08554913294797688</v>
       </c>
       <c r="L45">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M45">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>821</v>
+        <v>791</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K46">
-        <v>0.08429561200923788</v>
+        <v>0.08469055374592833</v>
       </c>
       <c r="L46">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="M46">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="N46">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O46">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>793</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K47">
-        <v>0.0782934833567745</v>
+        <v>0.08057851239669421</v>
       </c>
       <c r="L47">
-        <v>167</v>
+        <v>39</v>
       </c>
       <c r="M47">
-        <v>177</v>
+        <v>41</v>
       </c>
       <c r="N47">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O47">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>1966</v>
+        <v>445</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K48">
-        <v>0.07231404958677685</v>
+        <v>0.08054639660857277</v>
       </c>
       <c r="L48">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="M48">
-        <v>37</v>
+        <v>191</v>
       </c>
       <c r="N48">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="O48">
-        <v>0.05000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>449</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K49">
-        <v>0.04792746113989637</v>
+        <v>0.07418856259659969</v>
       </c>
       <c r="L49">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="M49">
-        <v>167</v>
+        <v>51</v>
       </c>
       <c r="N49">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O49">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>2940</v>
+        <v>599</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K50">
-        <v>0.0383419689119171</v>
+        <v>0.04158004158004158</v>
       </c>
       <c r="L50">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M50">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="N50">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="O50">
-        <v>0.06999999999999995</v>
+        <v>0.13</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>928</v>
+        <v>922</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="K51">
-        <v>0.02684775742261529</v>
+        <v>0.04110032362459547</v>
       </c>
       <c r="L51">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="M51">
+        <v>144</v>
+      </c>
+      <c r="N51">
+        <v>0.88</v>
+      </c>
+      <c r="O51">
+        <v>0.12</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52">
+        <v>0.02868852459016394</v>
+      </c>
+      <c r="L52">
+        <v>91</v>
+      </c>
+      <c r="M52">
         <v>120</v>
       </c>
-      <c r="N51">
-        <v>0.71</v>
-      </c>
-      <c r="O51">
-        <v>0.29</v>
-      </c>
-      <c r="P51" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q51">
+      <c r="N52">
+        <v>0.76</v>
+      </c>
+      <c r="O52">
+        <v>0.24</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
         <v>3081</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K53">
+        <v>0.02601908065915004</v>
+      </c>
+      <c r="L53">
+        <v>30</v>
+      </c>
+      <c r="M53">
+        <v>38</v>
+      </c>
+      <c r="N53">
+        <v>0.79</v>
+      </c>
+      <c r="O53">
+        <v>0.21</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>1123</v>
       </c>
     </row>
   </sheetData>
